--- a/testdata/MerchantBoarding.xlsx
+++ b/testdata/MerchantBoarding.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView tabRatio="687" windowHeight="7575" windowWidth="15600" xWindow="240" yWindow="570"/>
+    <workbookView xWindow="240" yWindow="570" windowWidth="15600" windowHeight="7575" tabRatio="687" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="MerchantBoarding_MerchantAdd" r:id="rId1" sheetId="11"/>
-    <sheet name="MerchantBoarding_MerchantSearch" r:id="rId2" sheetId="22"/>
-    <sheet name="MerchantBoarding_MerchantUpdt" r:id="rId3" sheetId="23"/>
+    <sheet name="MerchantBoarding_MerchantAdd" sheetId="11" r:id="rId1"/>
+    <sheet name="MerchantBoarding_MerchantSearch" sheetId="22" r:id="rId2"/>
+    <sheet name="MerchantBoarding_MerchantUpdt" sheetId="23" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="273">
   <si>
     <t>Row Number</t>
   </si>
@@ -174,9 +174,6 @@
     <t>txtMultipassTransactionKey</t>
   </si>
   <si>
-    <t>Q02IIJX7QK57JVNVKEJ0BCSOD5CU7FM1</t>
-  </si>
-  <si>
     <t>id::multipassLaneId</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
     <t>chkPaymentTypeDINERS</t>
   </si>
   <si>
-    <t>xpath:://li[@id='reports']/following-sibling::li[*]/a[contains(text(),'Boarding')]</t>
-  </si>
-  <si>
     <t>id::merchantSearch</t>
   </si>
   <si>
@@ -468,12 +462,6 @@
     <t>id::address</t>
   </si>
   <si>
-    <t>Suman's Merchant</t>
-  </si>
-  <si>
-    <t>Suman's Merchant DBA</t>
-  </si>
-  <si>
     <t>9999999999</t>
   </si>
   <si>
@@ -813,23 +801,46 @@
     <t>0763</t>
   </si>
   <si>
-    <t>0205181645</t>
-  </si>
-  <si>
-    <t>10305181324</t>
-  </si>
-  <si>
-    <t>12905181706</t>
-  </si>
-  <si>
-    <t>10106181741</t>
+    <t>888000002826</t>
+  </si>
+  <si>
+    <t>btnGenerate</t>
+  </si>
+  <si>
+    <t>xpath:://button[text()='Generate']</t>
+  </si>
+  <si>
+    <t>txtUserID</t>
+  </si>
+  <si>
+    <t>txtPassword</t>
+  </si>
+  <si>
+    <t>id::userID</t>
+  </si>
+  <si>
+    <t>id::password</t>
+  </si>
+  <si>
+    <t>TA5208012</t>
+  </si>
+  <si>
+    <t>18Edgepay$</t>
+  </si>
+  <si>
+    <t>btnGetTransactionKey</t>
+  </si>
+  <si>
+    <t>xpath:://button[text()='Get Transaction Key']</t>
+  </si>
+  <si>
+    <t>271105091008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,34 +914,34 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -944,10 +955,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1105,7 +1116,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1114,13 +1125,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1130,7 +1141,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1139,7 +1150,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1148,7 +1159,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1158,12 +1169,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1194,7 +1205,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1213,7 +1224,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1225,119 +1236,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="59.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="52.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="20" max="21" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="57.42578125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="53.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="45.7109375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="61" max="61" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="63" max="63" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="67" max="67" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="68" max="68" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="69" max="70" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="43.140625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="85" max="85" bestFit="true" customWidth="true" width="50.42578125" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="95" max="95" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="97" max="98" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="52.140625" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="61.28515625" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" width="45.42578125" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" width="43.140625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="52.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="57.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="53.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="45.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="73" max="74" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="43.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="50.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="102" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="42.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="52.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="61.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="43.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,13 +1376,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>44</v>
@@ -1390,19 +1406,19 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
@@ -1423,16 +1439,16 @@
         <v>28</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>40</v>
@@ -1444,7 +1460,7 @@
         <v>31</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>32</v>
@@ -1459,7 +1475,7 @@
         <v>35</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>38</v>
@@ -1471,28 +1487,28 @@
         <v>36</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>40</v>
@@ -1501,178 +1517,190 @@
         <v>49</v>
       </c>
       <c r="BC1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="BQ1" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="BZ1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CB1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CS1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="CI1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DA1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="CQ1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="CZ1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DE1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -1687,19 +1715,19 @@
         <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>17</v>
@@ -1717,259 +1745,271 @@
         <v>21</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="AT2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AU2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="AY2" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="BC2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BD2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BK2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BG2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BL2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BJ2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BL2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="BQ2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="BR2" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>170</v>
+        <v>81</v>
+      </c>
+      <c r="BT2" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="BU2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="CE2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BW2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CF2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="CB2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG2" s="10" t="s">
+      <c r="CM2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="CH2" s="10" t="s">
+      <c r="CP2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CQ2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CV2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="CI2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CM2" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CR2" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="CV2" s="10" t="s">
+      <c r="CW2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CZ2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="CW2" s="2" t="s">
+      <c r="DB2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="CX2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA2" s="2" t="s">
+      <c r="DC2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DE2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2075,8 +2115,12 @@
       <c r="CY3" s="3"/>
       <c r="CZ3" s="3"/>
       <c r="DA3" s="3"/>
-    </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3"/>
+      <c r="DD3" s="3"/>
+      <c r="DE3" s="3"/>
+    </row>
+    <row r="4" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -2186,8 +2230,12 @@
       <c r="CY4" s="3"/>
       <c r="CZ4" s="3"/>
       <c r="DA4" s="3"/>
-    </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+    </row>
+    <row r="5" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2293,22 +2341,25 @@
       <c r="CY5" s="3"/>
       <c r="CZ5" s="3"/>
       <c r="DA5" s="3"/>
-    </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB5" s="3"/>
+      <c r="DC5" s="3"/>
+      <c r="DD5" s="3"/>
+      <c r="DE5" s="3"/>
+    </row>
+    <row r="6" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="D6" s="5" t="str">
-        <f ca="1">CONCATENATE("1",TEXT(NOW(),"ddmmyyhhmm"))</f>
-        <v>10305181136</v>
+      <c r="D6" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>1</v>
@@ -2326,20 +2377,20 @@
         <v>11</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2445,14 +2496,18 @@
       <c r="CY7" s="3"/>
       <c r="CZ7" s="3"/>
       <c r="DA7" s="3"/>
-    </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB7" s="3"/>
+      <c r="DC7" s="3"/>
+      <c r="DD7" s="3"/>
+      <c r="DE7" s="3"/>
+    </row>
+    <row r="8" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="Q8" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2471,7 +2526,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="R10" t="s">
         <v>1</v>
@@ -2513,7 +2568,7 @@
       </c>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2617,8 +2672,12 @@
       <c r="CY11" s="3"/>
       <c r="CZ11" s="3"/>
       <c r="DA11" s="3"/>
-    </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB11" s="3"/>
+      <c r="DC11" s="3"/>
+      <c r="DD11" s="3"/>
+      <c r="DE11" s="3"/>
+    </row>
+    <row r="12" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2631,7 +2690,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2663,7 +2722,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
@@ -2689,16 +2748,16 @@
       <c r="BB13" s="3"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
-      <c r="BE13" s="9"/>
-      <c r="BG13" s="9"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
       <c r="BI13" s="9"/>
       <c r="BK13" s="9"/>
       <c r="BM13" s="9"/>
       <c r="BO13" s="9"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
+      <c r="BQ13" s="9"/>
+      <c r="BS13" s="9"/>
       <c r="BU13" s="3"/>
       <c r="BV13" s="3"/>
       <c r="BW13" s="3"/>
@@ -2710,24 +2769,28 @@
       <c r="CC13" s="3"/>
       <c r="CD13" s="3"/>
       <c r="CE13" s="3"/>
-      <c r="CF13" s="9"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
+      <c r="CH13" s="3"/>
       <c r="CI13" s="3"/>
-      <c r="CJ13" s="3"/>
-      <c r="CK13" s="3"/>
-      <c r="CL13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CM13" s="3"/>
       <c r="CN13" s="3"/>
       <c r="CO13" s="3"/>
-      <c r="CP13" s="3"/>
-      <c r="CQ13" s="9"/>
+      <c r="CP13" s="9"/>
+      <c r="CR13" s="3"/>
       <c r="CS13" s="3"/>
       <c r="CT13" s="3"/>
       <c r="CU13" s="9"/>
-      <c r="CW13" s="9"/>
-      <c r="CY13" s="3"/>
-      <c r="CZ13" s="3"/>
-      <c r="DA13" s="3"/>
-    </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="CW13" s="3"/>
+      <c r="CX13" s="3"/>
+      <c r="CY13" s="9"/>
+      <c r="DA13" s="9"/>
+      <c r="DC13" s="3"/>
+      <c r="DD13" s="3"/>
+      <c r="DE13" s="3"/>
+    </row>
+    <row r="14" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2754,7 +2817,7 @@
       <c r="AZ14" s="3"/>
       <c r="BA14" s="3"/>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2860,8 +2923,12 @@
       <c r="CY15" s="3"/>
       <c r="CZ15" s="3"/>
       <c r="DA15" s="3"/>
-    </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB15" s="3"/>
+      <c r="DC15" s="3"/>
+      <c r="DD15" s="3"/>
+      <c r="DE15" s="3"/>
+    </row>
+    <row r="16" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -2936,12 +3003,12 @@
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
       <c r="BB16" s="3"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
       <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
@@ -2950,13 +3017,17 @@
       <c r="BN16" s="3"/>
       <c r="BO16" s="3"/>
       <c r="BP16" s="3"/>
-      <c r="BQ16" s="4"/>
-      <c r="BR16" s="4"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
       <c r="BS16" s="3"/>
       <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-    </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+    </row>
+    <row r="17" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3061,12 +3132,16 @@
       <c r="CY17" s="3"/>
       <c r="CZ17" s="3"/>
       <c r="DA17" s="3"/>
-    </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB17" s="3"/>
+      <c r="DC17" s="3"/>
+      <c r="DD17" s="3"/>
+      <c r="DE17" s="3"/>
+    </row>
+    <row r="18" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="BT18" s="9"/>
-    </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="BX18" s="9"/>
+    </row>
+    <row r="19" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -3103,7 +3178,7 @@
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
       <c r="AZ19" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
@@ -3158,38 +3233,40 @@
       <c r="CY19" s="3"/>
       <c r="CZ19" s="3"/>
       <c r="DA19" s="3"/>
-    </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB19" s="3"/>
+      <c r="DC19" s="3"/>
+      <c r="DD19" s="3"/>
+      <c r="DE19" s="3"/>
+    </row>
+    <row r="20" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="BA20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="BB22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BC22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD22" s="5" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="BD22" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="BF22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="BG22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH22" s="3" t="s">
-        <v>1</v>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="BI22" s="3" t="s">
         <v>1</v>
@@ -3215,171 +3292,183 @@
       <c r="BP22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="BQ22" s="5" t="str">
-        <f ca="1">D6</f>
-        <v>10305181136</v>
-      </c>
-      <c r="BR22" s="5" t="s">
-        <v>60</v>
+      <c r="BQ22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR22" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="BS22" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="BT22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU22" s="5" t="str">
+        <f>D6</f>
+        <v>888000002826</v>
+      </c>
+      <c r="BV22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="BT25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="BX25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="BU26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="BY26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="BV28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY28" s="5" t="s">
+      <c r="BZ28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD28" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="BZ28" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="CA28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="CB28" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="CC28" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="CD28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE28" s="5"/>
-      <c r="CF28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CH28" s="3"/>
-      <c r="CI28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="CJ28" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="CK28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="CL28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM28" s="3" t="s">
-        <v>1</v>
+      <c r="CF28" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="CG28" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="CH28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI28" s="5"/>
+      <c r="CJ28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL28" s="3"/>
+      <c r="CM28" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="CN28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CP28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="CO28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP28" s="5"/>
-      <c r="CQ28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR28" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="CS28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="CT28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT28" s="5"/>
+      <c r="CU28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="CU28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CW28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CX28" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="CY28" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="CZ28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="CZ30" s="3"/>
-    </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DD30" s="3"/>
+    </row>
+    <row r="31" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="CZ31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DD31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="DA32" s="3" t="s">
+      <c r="DE32" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Suman@333" r:id="rId1" ref="C4"/>
-    <hyperlink r:id="rId2" ref="N6"/>
+    <hyperlink ref="C4" r:id="rId1" display="Suman@333"/>
+    <hyperlink ref="N6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="72.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -3399,10 +3488,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3411,19 +3500,19 @@
         <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3437,7 +3526,9 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3459,8 +3550,8 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>268</v>
+      <c r="D6" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
@@ -3493,11 +3584,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>CONCATENATE("text::",D6)</f>
-        <v>text::</v>
+        <v>text::271105091008</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3574,46 +3665,46 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Suman@333" r:id="rId1" ref="C4"/>
+    <hyperlink ref="C4" r:id="rId1" display="Suman@333"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="61.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="47.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="39.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -3621,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -3645,7 +3736,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>44</v>
@@ -3654,7 +3745,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
@@ -3669,100 +3760,100 @@
         <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="U1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="X1" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>233</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>41</v>
@@ -3826,11 +3917,11 @@
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="str">
         <f>CONCATENATE("text::",MerchantBoarding_MerchantSearch!D6)</f>
-        <v>text::1804181512</v>
+        <v>text::271105091008</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>CONCATENATE("text::",MerchantBoarding_MerchantAdd!E6)</f>
-        <v>text::Suman's Merchant</v>
+        <v>text::Suman's Merchant Updated</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>CONCATENATE("text::",MerchantBoarding_MerchantAdd!M6)</f>
@@ -3838,7 +3929,7 @@
       </c>
       <c r="E5" s="3" t="str">
         <f>CONCATENATE("text::",MerchantBoarding_MerchantAdd!F6)</f>
-        <v>text::Suman's Merchant DBA</v>
+        <v>text::Suman's Merchant DBA Updated</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
@@ -3917,34 +4008,34 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="G8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q8" t="s">
         <v>1</v>
@@ -4013,7 +4104,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -4122,7 +4213,7 @@
       <c r="A17" s="1"/>
       <c r="B17" t="str">
         <f>B5</f>
-        <v>text::1804181512</v>
+        <v>text::271105091008</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>CONCATENATE("text::",G8)</f>
@@ -4163,7 +4254,7 @@
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="U19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -4187,7 +4278,7 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="X23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -4207,7 +4298,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="13"/>
       <c r="U27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -4233,7 +4324,7 @@
       <c r="B32" s="13"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>